--- a/test.xlsx
+++ b/test.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\PyParser\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5402E354-F96F-46FE-A420-1E148213314F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>Corp_emails</t>
-  </si>
-  <si>
-    <t>Дімітрова</t>
-  </si>
-  <si>
-    <t>Яна</t>
-  </si>
-  <si>
-    <t>['kim_erika014@idguonline.net']</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,41 +420,1314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Surname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Specialty number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Corp_emails</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Тимофій</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Драгні</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>drahni113@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Мирослава</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Комарова</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>komarova113@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Юлія</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Яніогло</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>yaniohlo014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Марина</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Яманді</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>yamandi014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ксенія</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Гуржій</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>hurzhii014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Жужунова</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>zhuzhunova014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Анастасія</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Самойлова</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>samoilova014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Віталій</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Діденко</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>didenko014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Владислава</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Югаленко</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>yuhalenko014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Сергій</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Узун</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>uzun014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Дмитро</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Гамов</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>hamov014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Могучова</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>mohuchova014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Артем</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Малихін</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>malykhin014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ірина</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Лисенко</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>lysenko014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ангеліна</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Гугай</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>huhai014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Юлія</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Кудьярова</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>kudiarova014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Маріанна</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Маргаринт</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>marharynt014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Анастасія</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Мирзахмедова</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>myrzakhmedova014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Юлія</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Татару</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>tataru014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Галина</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Тіхня</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>tikhnia014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Кристина</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Руссєва</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>russieva014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Аліна</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Гросу</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>hrosu014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Яна</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Дімітрова</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>dimitrova014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Дарія</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Грамма</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>hramma014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Юлія</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Фрумузакі</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>frumuzaki014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Сергій</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Стойловський</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>stoilovskyi014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ірина</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Булгару</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>bulharu071@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Анастасія</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Белінська</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>belinska071@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Кирило</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Поволяшко</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>povoliashko014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Владислав</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Лукін</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>lukin014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Олександр</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Степанов</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>stepanov014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Олександр</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Колесников</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>kolesnykov014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Іван</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Стариш</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>starysh014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Софія</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Пєткова</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>pietkova014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Наталя</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Шмирьова</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>shmyrova014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Богдан</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Попазов</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>popazov014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Еріка</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Кім</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>kim_erika014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ростислав</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Улезько</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ulezko014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Игорь</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Гросу</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>hrosu_ihor014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Анастасія</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Гниличенко</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>hnylychenko014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Ігор</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Кравченко</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>kravchenko014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Юлія</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Кошельник</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>koshelnyk014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Григорій</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Денисов</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>denysov014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Дарія</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Оарзи</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>oarzy014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Агнета</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Кваша</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>kvasha014@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Дар'я</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Борщ</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>borshch073@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Іван</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Владиченко</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>vladychenko073@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Дар'я</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Качанжі</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>kachanzhi073@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Анастасія</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Мартинюк</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>martyniuk073@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Анастасія</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Минковська</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>mynkovska073@idguonline.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Людмила</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Шпаченко</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>shpachenko073@idguonline.net</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1730,6 +1730,27 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ивдзигин</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Шишов</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ивдзигин</t>
+          <t>Івдизгєня</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">

--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1730,27 +1730,6 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Івдизгєня</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Шишов</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>014</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Драгні</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Тимофій</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Драгні</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Комарова</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Мирослава</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Комарова</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Яніогло</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Юлія</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Яніогло</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Яманді</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Марина</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Яманді</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Гуржій</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Ксенія</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Гуржій</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -586,12 +586,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Жужунова</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Ольга</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Жужунова</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Самойлова</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Анастасія</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Самойлова</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -636,12 +636,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Діденко</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Віталій</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Діденко</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Югаленко</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Владислава</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Югаленко</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Узун</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Сергій</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Узун</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Гамов</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Дмитро</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Гамов</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Могучова</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Ольга</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Могучова</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Малихін</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Артем</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Малихін</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Лисенко</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Ірина</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Лисенко</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Гугай</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Ангеліна</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Гугай</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Кудьярова</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Юлія</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Кудьярова</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Маргаринт</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Маріанна</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Маргаринт</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Мирзахмедова</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Анастасія</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Мирзахмедова</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Татару</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Юлія</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Татару</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Тіхня</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Галина</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Тіхня</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Руссєва</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Кристина</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Руссєва</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Гросу</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Аліна</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Гросу</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Дімітрова</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Яна</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Дімітрова</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Грамма</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Дарія</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Грамма</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1061,12 +1061,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Фрумузакі</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Юлія</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Фрумузакі</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Стойловський</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Сергій</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Стойловський</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Булгару</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Ірина</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Булгару</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Белінська</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Анастасія</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Белінська</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Поволяшко</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Кирило</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Поволяшко</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Лукін</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Владислав</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Лукін</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Степанов</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Олександр</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Степанов</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Колесников</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Олександр</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Колесников</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Стариш</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Іван</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Стариш</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Пєткова</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Софія</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Пєткова</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>Шмирьова</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Наталя</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Шмирьова</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Попазов</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Богдан</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Попазов</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Кім</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Еріка</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Кім</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>Улезько</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>Ростислав</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Улезько</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Гросу</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Игорь</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Гросу</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Гниличенко</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Анастасія</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Гниличенко</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Кравченко</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>Ігор</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Кравченко</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>Кошельник</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Юлія</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Кошельник</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Денисов</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Григорій</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Денисов</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Оарзи</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>Дарія</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Оарзи</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Кваша</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>Агнета</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Кваша</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>Борщ</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>Дар'я</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Борщ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1611,12 +1611,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Владиченко</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Іван</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Владиченко</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Качанжі</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>Дар'я</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Качанжі</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>Мартинюк</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>Анастасія</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Мартинюк</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>Минковська</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>Анастасія</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Минковська</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Шпаченко</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>Людмила</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Шпаченко</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
